--- a/Data/EC/NIT-9002428514.xlsx
+++ b/Data/EC/NIT-9002428514.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{969FA7A2-89A5-41F0-AE20-DEC20A2E56A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A446DE-DA60-43F0-8D10-299F8313ADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BCEDA6AD-711C-4488-A37D-7287B1CD6992}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BCC46696-3012-4E55-845A-B6242E7ACE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="144">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,373 +71,370 @@
     <t>FABIO JOSE PEREZ SUAREZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>22793879</t>
+  </si>
+  <si>
+    <t>BEATRIZ ELENA PEREZ GARAY</t>
+  </si>
+  <si>
+    <t>1002476706</t>
+  </si>
+  <si>
+    <t>TERESA MURILLO CASTRO</t>
+  </si>
+  <si>
+    <t>79885525</t>
+  </si>
+  <si>
+    <t>JORGE IVAN CACERES CACERES</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1143332345</t>
+  </si>
+  <si>
+    <t>JIESON ALSINA ANGARITA</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>1704</t>
   </si>
   <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>22793879</t>
-  </si>
-  <si>
-    <t>BEATRIZ ELENA PEREZ GARAY</t>
+    <t>1001803366</t>
+  </si>
+  <si>
+    <t>LUIS JAVIER SANTOYA TEHERAN</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>8055417</t>
+  </si>
+  <si>
+    <t>NADIN DAVID PRADO PEREZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1002476706</t>
-  </si>
-  <si>
-    <t>TERESA MURILLO CASTRO</t>
-  </si>
-  <si>
-    <t>1143332345</t>
-  </si>
-  <si>
-    <t>JIESON ALSINA ANGARITA</t>
-  </si>
-  <si>
-    <t>79885525</t>
-  </si>
-  <si>
-    <t>JORGE IVAN CACERES CACERES</t>
-  </si>
-  <si>
-    <t>1001803366</t>
-  </si>
-  <si>
-    <t>LUIS JAVIER SANTOYA TEHERAN</t>
-  </si>
-  <si>
-    <t>8055417</t>
-  </si>
-  <si>
-    <t>NADIN DAVID PRADO PEREZ</t>
-  </si>
-  <si>
-    <t>1014210935</t>
-  </si>
-  <si>
-    <t>RONIS RAFAEL RADA RODRIGUEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -536,7 +533,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -549,9 +548,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -751,23 +748,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,10 +792,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,7 +848,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4026282B-3C0B-BC75-57AB-CEA21B05F070}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347590B1-E5E3-34FB-6C74-25DDEFB44678}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,8 +1199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310CC04F-3226-439F-8448-11CE49D22C55}">
-  <dimension ref="B2:J413"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150EB65B-958D-4396-91FF-9093E07B6731}">
+  <dimension ref="B2:J397"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1214,7 +1211,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1227,7 +1224,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1272,7 +1269,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1304,12 +1301,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>11928567</v>
+        <v>11140714</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1320,17 +1317,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1357,13 +1354,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1394,19 +1391,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1417,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1440,19 +1437,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1469,7 +1466,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>25774</v>
@@ -1486,19 +1483,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1509,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1532,16 +1529,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>25774</v>
+        <v>27580</v>
       </c>
       <c r="G23" s="18">
         <v>877803</v>
@@ -1555,19 +1552,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1584,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>25774</v>
@@ -1601,16 +1598,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1624,16 +1621,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1647,19 +1644,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27580</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1670,16 +1667,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1693,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1716,16 +1713,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1739,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1762,16 +1759,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1785,19 +1782,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1808,16 +1805,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1831,16 +1828,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1854,16 +1851,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1877,19 +1874,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1900,16 +1897,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1923,16 +1920,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1946,16 +1943,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1969,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1992,16 +1989,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -2015,16 +2012,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -2038,16 +2035,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -2061,19 +2058,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2084,16 +2081,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2107,16 +2104,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2130,16 +2127,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2153,19 +2150,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2176,16 +2173,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2199,16 +2196,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2222,16 +2219,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2245,19 +2242,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2268,16 +2265,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2291,16 +2288,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2314,16 +2311,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2337,19 +2334,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2360,16 +2357,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2383,16 +2380,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2406,16 +2403,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2429,19 +2426,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2452,19 +2449,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2475,16 +2472,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2498,16 +2495,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2521,16 +2518,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2544,19 +2541,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2567,16 +2564,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2590,16 +2587,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2613,16 +2610,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2636,19 +2633,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2659,16 +2656,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2682,16 +2679,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2705,16 +2702,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2728,19 +2725,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2751,16 +2748,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2774,16 +2771,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2797,16 +2794,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2820,19 +2817,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2843,16 +2840,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2866,16 +2863,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2889,16 +2886,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2912,19 +2909,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2935,16 +2932,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2958,16 +2955,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2981,16 +2978,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -3004,19 +3001,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3027,16 +3024,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -3050,16 +3047,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -3073,16 +3070,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -3096,19 +3093,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3119,16 +3116,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3142,16 +3139,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3165,16 +3162,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3188,19 +3185,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3211,16 +3208,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3234,16 +3231,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3257,16 +3254,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3280,19 +3277,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3303,16 +3300,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3326,16 +3323,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3349,16 +3346,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3372,19 +3369,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3395,16 +3392,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3418,16 +3415,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3441,16 +3438,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3464,19 +3461,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3487,16 +3484,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3510,13 +3507,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="F109" s="18">
         <v>24640</v>
@@ -3533,13 +3530,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F110" s="18">
         <v>24640</v>
@@ -3556,19 +3553,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F111" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3579,13 +3576,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="F112" s="18">
         <v>24640</v>
@@ -3602,13 +3599,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="F113" s="18">
         <v>24640</v>
@@ -3625,13 +3622,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="F114" s="18">
         <v>24640</v>
@@ -3648,19 +3645,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="F115" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3671,13 +3668,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="F116" s="18">
         <v>24640</v>
@@ -3694,13 +3691,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F117" s="18">
         <v>24640</v>
@@ -3717,13 +3714,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="F118" s="18">
         <v>24640</v>
@@ -3740,19 +3737,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="F119" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3763,13 +3760,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="F120" s="18">
         <v>24640</v>
@@ -3786,13 +3783,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="F121" s="18">
         <v>24640</v>
@@ -3809,13 +3806,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F122" s="18">
         <v>24640</v>
@@ -3832,19 +3829,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="F123" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3855,16 +3852,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="F124" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3878,16 +3875,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F125" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
         <v>781242</v>
@@ -3901,16 +3898,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F126" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3924,19 +3921,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F127" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3947,16 +3944,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F128" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
         <v>781242</v>
@@ -3970,16 +3967,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F129" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3993,16 +3990,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F130" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
         <v>781242</v>
@@ -4016,19 +4013,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F131" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4039,16 +4036,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F132" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
         <v>781242</v>
@@ -4062,16 +4059,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F133" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
         <v>781242</v>
@@ -4085,16 +4082,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F134" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
         <v>781242</v>
@@ -4108,19 +4105,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4131,13 +4128,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4154,13 +4151,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4177,13 +4174,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4200,19 +4197,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4223,13 +4220,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4246,13 +4243,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4269,13 +4266,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4292,19 +4289,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4315,13 +4312,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4338,13 +4335,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4361,13 +4358,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4384,19 +4381,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4407,13 +4404,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4430,13 +4427,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4453,13 +4450,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4476,19 +4473,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4499,13 +4496,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4522,13 +4519,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4545,13 +4542,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4568,19 +4565,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4591,13 +4588,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4614,13 +4611,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4637,13 +4634,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4660,19 +4657,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4683,13 +4680,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4706,13 +4703,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4729,13 +4726,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4752,19 +4749,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4775,13 +4772,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4798,13 +4795,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4821,13 +4818,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
@@ -4844,19 +4841,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4867,13 +4864,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4890,13 +4887,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
@@ -4913,13 +4910,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4936,19 +4933,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4959,13 +4956,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
@@ -4982,10 +4979,10 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>61</v>
@@ -5005,13 +5002,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
@@ -5028,19 +5025,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F175" s="18">
         <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5051,13 +5048,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
@@ -5074,13 +5071,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F177" s="18">
         <v>31249</v>
@@ -5097,13 +5094,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F178" s="18">
         <v>31249</v>
@@ -5120,19 +5117,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F179" s="18">
         <v>31249</v>
       </c>
       <c r="G179" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5143,13 +5140,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F180" s="18">
         <v>31249</v>
@@ -5166,13 +5163,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F181" s="18">
         <v>31249</v>
@@ -5189,13 +5186,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F182" s="18">
         <v>31249</v>
@@ -5212,19 +5209,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F183" s="18">
         <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5235,13 +5232,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F184" s="18">
         <v>31249</v>
@@ -5258,13 +5255,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F185" s="18">
         <v>31249</v>
@@ -5281,13 +5278,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
@@ -5304,19 +5301,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5327,13 +5324,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
@@ -5350,13 +5347,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5373,13 +5370,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
@@ -5396,13 +5393,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5419,13 +5416,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5442,13 +5439,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
@@ -5465,13 +5462,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
@@ -5488,13 +5485,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5511,13 +5508,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5534,13 +5531,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5557,13 +5554,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5580,13 +5577,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5603,13 +5600,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
@@ -5626,13 +5623,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5649,13 +5646,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
@@ -5672,13 +5669,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F203" s="18">
         <v>31249</v>
@@ -5695,13 +5692,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5718,13 +5715,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F205" s="18">
         <v>31249</v>
@@ -5741,13 +5738,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F206" s="18">
         <v>31249</v>
@@ -5764,13 +5761,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5787,13 +5784,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F208" s="18">
         <v>31249</v>
@@ -5810,13 +5807,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5833,13 +5830,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F210" s="18">
         <v>31249</v>
@@ -5856,13 +5853,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
@@ -5879,13 +5876,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F212" s="18">
         <v>31249</v>
@@ -5902,13 +5899,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F213" s="18">
         <v>31249</v>
@@ -5925,13 +5922,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F214" s="18">
         <v>31249</v>
@@ -5948,13 +5945,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F215" s="18">
         <v>31249</v>
@@ -5971,13 +5968,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F216" s="18">
         <v>31249</v>
@@ -5994,13 +5991,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F217" s="18">
         <v>31249</v>
@@ -6017,16 +6014,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F218" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
         <v>781242</v>
@@ -6040,16 +6037,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F219" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
         <v>781242</v>
@@ -6063,16 +6060,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F220" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
         <v>781242</v>
@@ -6086,16 +6083,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F221" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
         <v>781242</v>
@@ -6109,16 +6106,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F222" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
         <v>781242</v>
@@ -6132,16 +6129,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F223" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
         <v>781242</v>
@@ -6155,16 +6152,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F224" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
         <v>781242</v>
@@ -6178,16 +6175,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F225" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
         <v>781242</v>
@@ -6201,16 +6198,16 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="F226" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
         <v>781242</v>
@@ -6224,16 +6221,16 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F227" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G227" s="18">
         <v>781242</v>
@@ -6247,16 +6244,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="F228" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
         <v>781242</v>
@@ -6270,16 +6267,16 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F229" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G229" s="18">
         <v>781242</v>
@@ -6293,16 +6290,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="F230" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G230" s="18">
         <v>781242</v>
@@ -6316,16 +6313,16 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="F231" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
         <v>781242</v>
@@ -6339,16 +6336,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="F232" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G232" s="18">
         <v>781242</v>
@@ -6362,16 +6359,16 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="F233" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G233" s="18">
         <v>781242</v>
@@ -6385,16 +6382,16 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F234" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
         <v>781242</v>
@@ -6408,16 +6405,16 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F235" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G235" s="18">
         <v>781242</v>
@@ -6431,16 +6428,16 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="F236" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
         <v>781242</v>
@@ -6454,16 +6451,16 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F237" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G237" s="18">
         <v>781242</v>
@@ -6477,16 +6474,16 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F238" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G238" s="18">
         <v>781242</v>
@@ -6500,16 +6497,16 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F239" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G239" s="18">
         <v>781242</v>
@@ -6523,16 +6520,16 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F240" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G240" s="18">
         <v>781242</v>
@@ -6546,16 +6543,16 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F241" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G241" s="18">
         <v>781242</v>
@@ -6569,16 +6566,16 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F242" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G242" s="18">
         <v>781242</v>
@@ -6592,16 +6589,16 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F243" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G243" s="18">
         <v>781242</v>
@@ -6615,19 +6612,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F244" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6638,19 +6635,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F245" s="18">
-        <v>27580</v>
+        <v>31249</v>
       </c>
       <c r="G245" s="18">
-        <v>689500</v>
+        <v>781242</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6661,13 +6658,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F246" s="18">
         <v>31249</v>
@@ -6684,13 +6681,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F247" s="18">
         <v>31249</v>
@@ -6707,13 +6704,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
@@ -6730,13 +6727,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6753,13 +6750,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F250" s="18">
         <v>31249</v>
@@ -6776,13 +6773,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6799,13 +6796,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
@@ -6822,13 +6819,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F253" s="18">
         <v>31249</v>
@@ -6845,13 +6842,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6868,13 +6865,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
@@ -6891,13 +6888,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F256" s="18">
         <v>31249</v>
@@ -6914,13 +6911,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F257" s="18">
         <v>31249</v>
@@ -6937,13 +6934,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F258" s="18">
         <v>31249</v>
@@ -6960,13 +6957,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F259" s="18">
         <v>31249</v>
@@ -6983,13 +6980,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F260" s="18">
         <v>31249</v>
@@ -7006,13 +7003,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
@@ -7029,13 +7026,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F262" s="18">
         <v>31249</v>
@@ -7052,13 +7049,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F263" s="18">
         <v>31249</v>
@@ -7075,13 +7072,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F264" s="18">
         <v>31249</v>
@@ -7098,13 +7095,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F265" s="18">
         <v>31249</v>
@@ -7121,13 +7118,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F266" s="18">
         <v>31249</v>
@@ -7144,13 +7141,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F267" s="18">
         <v>31249</v>
@@ -7167,13 +7164,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F268" s="18">
         <v>31249</v>
@@ -7190,13 +7187,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F269" s="18">
         <v>31249</v>
@@ -7213,13 +7210,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F270" s="18">
         <v>31249</v>
@@ -7236,13 +7233,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F271" s="18">
         <v>31249</v>
@@ -7259,13 +7256,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F272" s="18">
         <v>31249</v>
@@ -7282,13 +7279,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F273" s="18">
         <v>31249</v>
@@ -7305,13 +7302,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F274" s="18">
         <v>31249</v>
@@ -7328,13 +7325,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F275" s="18">
         <v>31249</v>
@@ -7351,13 +7348,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F276" s="18">
         <v>31249</v>
@@ -7374,13 +7371,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F277" s="18">
         <v>31249</v>
@@ -7397,13 +7394,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F278" s="18">
         <v>31249</v>
@@ -7420,13 +7417,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F279" s="18">
         <v>31249</v>
@@ -7443,13 +7440,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F280" s="18">
         <v>31249</v>
@@ -7466,13 +7463,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F281" s="18">
         <v>31249</v>
@@ -7489,13 +7486,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F282" s="18">
         <v>31249</v>
@@ -7512,13 +7509,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F283" s="18">
         <v>31249</v>
@@ -7535,13 +7532,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F284" s="18">
         <v>31249</v>
@@ -7558,13 +7555,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F285" s="18">
         <v>31249</v>
@@ -7581,13 +7578,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F286" s="18">
         <v>31249</v>
@@ -7604,13 +7601,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F287" s="18">
         <v>31249</v>
@@ -7627,13 +7624,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F288" s="18">
         <v>31249</v>
@@ -7650,13 +7647,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F289" s="18">
         <v>31249</v>
@@ -7673,13 +7670,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F290" s="18">
         <v>31249</v>
@@ -7696,13 +7693,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F291" s="18">
         <v>31249</v>
@@ -7719,13 +7716,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F292" s="18">
         <v>31249</v>
@@ -7742,13 +7739,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F293" s="18">
         <v>31249</v>
@@ -7765,13 +7762,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F294" s="18">
         <v>31249</v>
@@ -7788,13 +7785,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F295" s="18">
         <v>31249</v>
@@ -7811,13 +7808,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F296" s="18">
         <v>31249</v>
@@ -7834,13 +7831,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F297" s="18">
         <v>31249</v>
@@ -7857,13 +7854,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F298" s="18">
         <v>31249</v>
@@ -7880,13 +7877,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F299" s="18">
         <v>31249</v>
@@ -7903,13 +7900,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F300" s="18">
         <v>31249</v>
@@ -7926,13 +7923,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F301" s="18">
         <v>31249</v>
@@ -7949,13 +7946,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F302" s="18">
         <v>31249</v>
@@ -7972,13 +7969,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F303" s="18">
         <v>31249</v>
@@ -7995,13 +7992,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F304" s="18">
         <v>31249</v>
@@ -8018,13 +8015,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F305" s="18">
         <v>31249</v>
@@ -8041,13 +8038,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F306" s="18">
         <v>31249</v>
@@ -8064,13 +8061,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F307" s="18">
         <v>31249</v>
@@ -8087,13 +8084,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F308" s="18">
         <v>31249</v>
@@ -8110,13 +8107,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F309" s="18">
         <v>31249</v>
@@ -8133,13 +8130,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F310" s="18">
         <v>31249</v>
@@ -8156,13 +8153,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F311" s="18">
         <v>31249</v>
@@ -8179,13 +8176,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
@@ -8202,13 +8199,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F313" s="18">
         <v>31249</v>
@@ -8225,13 +8222,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F314" s="18">
         <v>31249</v>
@@ -8248,13 +8245,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F315" s="18">
         <v>31249</v>
@@ -8271,13 +8268,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F316" s="18">
         <v>31249</v>
@@ -8294,13 +8291,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F317" s="18">
         <v>31249</v>
@@ -8317,13 +8314,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F318" s="18">
         <v>31249</v>
@@ -8340,13 +8337,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F319" s="18">
         <v>31249</v>
@@ -8363,13 +8360,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F320" s="18">
         <v>31249</v>
@@ -8386,13 +8383,13 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F321" s="18">
         <v>31249</v>
@@ -8409,13 +8406,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F322" s="18">
         <v>31249</v>
@@ -8432,13 +8429,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F323" s="18">
         <v>31249</v>
@@ -8455,13 +8452,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F324" s="18">
         <v>31249</v>
@@ -8478,13 +8475,13 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F325" s="18">
         <v>31249</v>
@@ -8501,13 +8498,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F326" s="18">
         <v>31249</v>
@@ -8524,13 +8521,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F327" s="18">
         <v>31249</v>
@@ -8547,13 +8544,13 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F328" s="18">
         <v>31249</v>
@@ -8570,16 +8567,16 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F329" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G329" s="18">
         <v>781242</v>
@@ -8593,16 +8590,16 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F330" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G330" s="18">
         <v>781242</v>
@@ -8616,16 +8613,16 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F331" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G331" s="18">
         <v>781242</v>
@@ -8639,16 +8636,16 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F332" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G332" s="18">
         <v>781242</v>
@@ -8662,16 +8659,16 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F333" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G333" s="18">
         <v>781242</v>
@@ -8685,16 +8682,16 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F334" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G334" s="18">
         <v>781242</v>
@@ -8708,16 +8705,16 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F335" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G335" s="18">
         <v>781242</v>
@@ -8731,16 +8728,16 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F336" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G336" s="18">
         <v>781242</v>
@@ -8754,16 +8751,16 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E337" s="16" t="s">
         <v>114</v>
       </c>
       <c r="F337" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G337" s="18">
         <v>781242</v>
@@ -8777,16 +8774,16 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E338" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F338" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G338" s="18">
         <v>781242</v>
@@ -8800,16 +8797,16 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F339" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G339" s="18">
         <v>781242</v>
@@ -8823,16 +8820,16 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F340" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G340" s="18">
         <v>781242</v>
@@ -8846,16 +8843,16 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F341" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G341" s="18">
         <v>781242</v>
@@ -8869,16 +8866,16 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F342" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G342" s="18">
         <v>781242</v>
@@ -8892,16 +8889,16 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F343" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G343" s="18">
         <v>781242</v>
@@ -8915,16 +8912,16 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F344" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G344" s="18">
         <v>781242</v>
@@ -8938,16 +8935,16 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F345" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G345" s="18">
         <v>781242</v>
@@ -8961,16 +8958,16 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="F346" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G346" s="18">
         <v>781242</v>
@@ -8984,16 +8981,16 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F347" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G347" s="18">
         <v>781242</v>
@@ -9007,16 +9004,16 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F348" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G348" s="18">
         <v>781242</v>
@@ -9030,16 +9027,16 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="F349" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G349" s="18">
         <v>781242</v>
@@ -9053,16 +9050,16 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F350" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G350" s="18">
         <v>781242</v>
@@ -9076,16 +9073,16 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F351" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G351" s="18">
         <v>781242</v>
@@ -9099,16 +9096,16 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="F352" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G352" s="18">
         <v>781242</v>
@@ -9122,16 +9119,16 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="F353" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G353" s="18">
         <v>781242</v>
@@ -9145,16 +9142,16 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F354" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G354" s="18">
         <v>781242</v>
@@ -9168,19 +9165,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F355" s="18">
         <v>31249</v>
       </c>
       <c r="G355" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9191,19 +9188,19 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F356" s="18">
         <v>31249</v>
       </c>
       <c r="G356" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H356" s="19"/>
       <c r="I356" s="19"/>
@@ -9214,19 +9211,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F357" s="18">
         <v>31249</v>
       </c>
       <c r="G357" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9237,19 +9234,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F358" s="18">
         <v>31249</v>
       </c>
       <c r="G358" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9260,19 +9257,19 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F359" s="18">
         <v>31249</v>
       </c>
       <c r="G359" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H359" s="19"/>
       <c r="I359" s="19"/>
@@ -9283,19 +9280,19 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F360" s="18">
         <v>31249</v>
       </c>
       <c r="G360" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H360" s="19"/>
       <c r="I360" s="19"/>
@@ -9306,19 +9303,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F361" s="18">
         <v>31249</v>
       </c>
       <c r="G361" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9329,19 +9326,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="F362" s="18">
         <v>31249</v>
       </c>
       <c r="G362" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9352,19 +9349,19 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F363" s="18">
         <v>31249</v>
       </c>
       <c r="G363" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H363" s="19"/>
       <c r="I363" s="19"/>
@@ -9375,19 +9372,19 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F364" s="18">
         <v>31249</v>
       </c>
       <c r="G364" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H364" s="19"/>
       <c r="I364" s="19"/>
@@ -9398,19 +9395,19 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F365" s="18">
         <v>31249</v>
       </c>
       <c r="G365" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H365" s="19"/>
       <c r="I365" s="19"/>
@@ -9421,19 +9418,19 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F366" s="18">
         <v>31249</v>
       </c>
       <c r="G366" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H366" s="19"/>
       <c r="I366" s="19"/>
@@ -9444,19 +9441,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F367" s="18">
         <v>31249</v>
       </c>
       <c r="G367" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9467,19 +9464,19 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="F368" s="18">
         <v>31249</v>
       </c>
       <c r="G368" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H368" s="19"/>
       <c r="I368" s="19"/>
@@ -9490,19 +9487,19 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F369" s="18">
         <v>31249</v>
       </c>
       <c r="G369" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H369" s="19"/>
       <c r="I369" s="19"/>
@@ -9513,19 +9510,19 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F370" s="18">
         <v>31249</v>
       </c>
       <c r="G370" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H370" s="19"/>
       <c r="I370" s="19"/>
@@ -9536,19 +9533,19 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F371" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G371" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H371" s="19"/>
       <c r="I371" s="19"/>
@@ -9559,19 +9556,19 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F372" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G372" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H372" s="19"/>
       <c r="I372" s="19"/>
@@ -9582,19 +9579,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F373" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G373" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9605,19 +9602,19 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F374" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G374" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H374" s="19"/>
       <c r="I374" s="19"/>
@@ -9628,19 +9625,19 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F375" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G375" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H375" s="19"/>
       <c r="I375" s="19"/>
@@ -9651,19 +9648,19 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F376" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G376" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H376" s="19"/>
       <c r="I376" s="19"/>
@@ -9674,19 +9671,19 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E377" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D377" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E377" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="F377" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G377" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H377" s="19"/>
       <c r="I377" s="19"/>
@@ -9697,19 +9694,19 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D378" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D378" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E378" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="F378" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G378" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H378" s="19"/>
       <c r="I378" s="19"/>
@@ -9720,19 +9717,19 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D379" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E379" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D379" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E379" s="16" t="s">
-        <v>114</v>
-      </c>
       <c r="F379" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G379" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H379" s="19"/>
       <c r="I379" s="19"/>
@@ -9743,19 +9740,19 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D380" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E380" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E380" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="F380" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G380" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H380" s="19"/>
       <c r="I380" s="19"/>
@@ -9766,19 +9763,19 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D381" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E381" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E381" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="F381" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G381" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H381" s="19"/>
       <c r="I381" s="19"/>
@@ -9789,19 +9786,19 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D382" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E382" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E382" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="F382" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G382" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H382" s="19"/>
       <c r="I382" s="19"/>
@@ -9812,19 +9809,19 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E383" s="16" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F383" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G383" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H383" s="19"/>
       <c r="I383" s="19"/>
@@ -9835,19 +9832,19 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E384" s="16" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F384" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G384" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H384" s="19"/>
       <c r="I384" s="19"/>
@@ -9858,19 +9855,19 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E385" s="16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F385" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G385" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H385" s="19"/>
       <c r="I385" s="19"/>
@@ -9881,19 +9878,19 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E386" s="16" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F386" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G386" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H386" s="19"/>
       <c r="I386" s="19"/>
@@ -9904,19 +9901,19 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="E387" s="16" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="F387" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G387" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H387" s="19"/>
       <c r="I387" s="19"/>
@@ -9927,19 +9924,19 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="D388" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E388" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E388" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="F388" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G388" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H388" s="19"/>
       <c r="I388" s="19"/>
@@ -9950,19 +9947,19 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E389" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D389" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E389" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F389" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G389" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H389" s="19"/>
       <c r="I389" s="19"/>
@@ -9973,443 +9970,75 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D390" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E390" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D390" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E390" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F390" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G390" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H390" s="19"/>
       <c r="I390" s="19"/>
       <c r="J390" s="20"/>
     </row>
     <row r="391" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B391" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C391" s="16" t="s">
+      <c r="B391" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C391" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D391" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E391" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D391" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E391" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F391" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G391" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H391" s="19"/>
-      <c r="I391" s="19"/>
-      <c r="J391" s="20"/>
-    </row>
-    <row r="392" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B392" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C392" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D392" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E392" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F392" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G392" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H392" s="19"/>
-      <c r="I392" s="19"/>
-      <c r="J392" s="20"/>
-    </row>
-    <row r="393" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B393" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C393" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D393" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E393" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F393" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G393" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H393" s="19"/>
-      <c r="I393" s="19"/>
-      <c r="J393" s="20"/>
-    </row>
-    <row r="394" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B394" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C394" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D394" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E394" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F394" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G394" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H394" s="19"/>
-      <c r="I394" s="19"/>
-      <c r="J394" s="20"/>
-    </row>
-    <row r="395" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B395" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C395" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D395" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E395" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F395" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G395" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H395" s="19"/>
-      <c r="I395" s="19"/>
-      <c r="J395" s="20"/>
+      <c r="F391" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G391" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H391" s="25"/>
+      <c r="I391" s="25"/>
+      <c r="J391" s="26"/>
     </row>
     <row r="396" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B396" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C396" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D396" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E396" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F396" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G396" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H396" s="19"/>
-      <c r="I396" s="19"/>
-      <c r="J396" s="20"/>
+      <c r="B396" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C396" s="32"/>
+      <c r="H396" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
     </row>
     <row r="397" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B397" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C397" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D397" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E397" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F397" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G397" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H397" s="19"/>
-      <c r="I397" s="19"/>
-      <c r="J397" s="20"/>
-    </row>
-    <row r="398" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B398" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C398" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D398" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E398" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F398" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G398" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H398" s="19"/>
-      <c r="I398" s="19"/>
-      <c r="J398" s="20"/>
-    </row>
-    <row r="399" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B399" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C399" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D399" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E399" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F399" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G399" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H399" s="19"/>
-      <c r="I399" s="19"/>
-      <c r="J399" s="20"/>
-    </row>
-    <row r="400" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B400" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C400" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D400" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E400" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F400" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G400" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H400" s="19"/>
-      <c r="I400" s="19"/>
-      <c r="J400" s="20"/>
-    </row>
-    <row r="401" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B401" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C401" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D401" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E401" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F401" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G401" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H401" s="19"/>
-      <c r="I401" s="19"/>
-      <c r="J401" s="20"/>
-    </row>
-    <row r="402" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B402" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C402" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D402" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E402" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F402" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G402" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H402" s="19"/>
-      <c r="I402" s="19"/>
-      <c r="J402" s="20"/>
-    </row>
-    <row r="403" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B403" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C403" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D403" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E403" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F403" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G403" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H403" s="19"/>
-      <c r="I403" s="19"/>
-      <c r="J403" s="20"/>
-    </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B404" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C404" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D404" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E404" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F404" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G404" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H404" s="19"/>
-      <c r="I404" s="19"/>
-      <c r="J404" s="20"/>
-    </row>
-    <row r="405" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B405" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C405" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D405" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E405" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F405" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G405" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H405" s="19"/>
-      <c r="I405" s="19"/>
-      <c r="J405" s="20"/>
-    </row>
-    <row r="406" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B406" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C406" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D406" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E406" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F406" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G406" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H406" s="19"/>
-      <c r="I406" s="19"/>
-      <c r="J406" s="20"/>
-    </row>
-    <row r="407" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B407" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C407" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D407" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E407" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F407" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G407" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H407" s="25"/>
-      <c r="I407" s="25"/>
-      <c r="J407" s="26"/>
-    </row>
-    <row r="412" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B412" s="32" t="s">
+      <c r="B397" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C397" s="32"/>
+      <c r="H397" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C412" s="32"/>
-      <c r="H412" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I412" s="1"/>
-      <c r="J412" s="1"/>
-    </row>
-    <row r="413" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B413" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C413" s="32"/>
-      <c r="H413" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="H413:J413"/>
-    <mergeCell ref="H412:J412"/>
+    <mergeCell ref="B397:C397"/>
+    <mergeCell ref="B396:C396"/>
+    <mergeCell ref="H397:J397"/>
+    <mergeCell ref="H396:J396"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
